--- a/scoresheets/clean/Step_1/ED_cognitions.xlsx
+++ b/scoresheets/clean/Step_1/ED_cognitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kschaumberg/ALSPAC/Data Cleaning and Analysis/data_cleaning/ALSPAC-scorekeep/scoresheets/clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/ALSPAC-scorekeep/scoresheets/clean/Step_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D667E4E-AE51-134E-95C6-7EEE8F7FA87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41B4881-8C7F-C94A-B15B-9461FEAF4D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16080" xr2:uid="{88121F7C-49FF-C642-9387-FAC47BFF8409}"/>
+    <workbookView xWindow="9920" yWindow="2160" windowWidth="44320" windowHeight="22540" xr2:uid="{88121F7C-49FF-C642-9387-FAC47BFF8409}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="479">
   <si>
     <t>new_var</t>
   </si>
@@ -1595,6 +1595,18 @@
   </si>
   <si>
     <t>diet_wt_loss.198</t>
+  </si>
+  <si>
+    <t>Consent withdrawn by YP = -9999, Triplet / quadruplet = -11, Not completed = -10, no response = -1, Not at all= 0, a little = 1, Somewhat= 2, Quite a lot =3, A lot=4</t>
+  </si>
+  <si>
+    <t>Consent withdrawn by YP = -9999, Triplet / quadruplet = -11, Not completed = -10,  No response = -1, I am not trying to do anything= 0, Stay the same = 1, Gain weight = 2, Lose weight =3</t>
+  </si>
+  <si>
+    <t>1=-2, 2=-1, 3=0, 4=1, 5=2, -1 = NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Very underweight= -2, slightly underweight = -1, About the right weight = 0, Slightly overweight =1, Very overweight =2</t>
   </si>
 </sst>
 </file>
@@ -2306,13 +2318,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0D013A-E388-1345-8648-087FF7A2BDB7}">
   <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="150" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="150" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="39" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.33203125" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.83203125" style="1"/>
@@ -7912,7 +7924,7 @@
         <v>2</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>94</v>
+        <v>476</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>90</v>
@@ -7947,10 +7959,10 @@
         <v>2</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>103</v>
+        <v>478</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>22</v>
@@ -7982,7 +7994,7 @@
         <v>2</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>108</v>
+        <v>475</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>109</v>

--- a/scoresheets/clean/Step_1/ED_cognitions.xlsx
+++ b/scoresheets/clean/Step_1/ED_cognitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/ALSPAC-scorekeep/scoresheets/clean/Step_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kschaumberg/ALSPAC/Data Cleaning and Analysis/data_cleaning/ALSPAC-scorekeep/scoresheets/clean/Step_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41B4881-8C7F-C94A-B15B-9461FEAF4D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E52D1C5-DE09-6745-B8CC-D0E92EFFE6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9920" yWindow="2160" windowWidth="44320" windowHeight="22540" xr2:uid="{88121F7C-49FF-C642-9387-FAC47BFF8409}"/>
+    <workbookView xWindow="2920" yWindow="660" windowWidth="25600" windowHeight="14420" xr2:uid="{88121F7C-49FF-C642-9387-FAC47BFF8409}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1871,7 +1870,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1947,6 +1946,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2318,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0D013A-E388-1345-8648-087FF7A2BDB7}">
   <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="150" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="G162" sqref="G162"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="150" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5246,7 +5248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="225" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11" ht="210" x14ac:dyDescent="0.15">
       <c r="A84" s="17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE, A2:A83)</f>
         <v>cidB3365,kz021,ccq200,ccq201,ccq202,ccq203,ccq204,ccq205,ccq210,ccq211,ccq212,ccq213,ccq214,ccq215,ccq220,ccq221,ccq222,ccq223,ccq224,ccq225,ccq226,ccq227,ccq228,ccq229,ccq230,ccq500,ccq490,ccq510,ccq511,ccq512,ccq513,ccq514,ccq515,ccq516,ccq517,ccq518,ccq519,ccq520,ccq521,ccq522,ccq523,ccq300,ccq301,ccq240,ccq241,ccq242,ccq243,ccq530,ccq540,ccq550,ccq560,ccq570,ccq580,ccq590,ccq260,ccq261,ccq262,ccq263,ccq440,ccq450,ccq460,YPD8100,ccs5500,ccs5501,ccs5502,ccs5503,cct4100,cct4101,cct4102,cct4103,ccq290,ccq280,cct4141,cct4140,cct4143,cct4142,YPD8090,YPD8080,cch200,cch201,ta6080,tc5060</v>
@@ -8852,7 +8854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="90" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:11" ht="75" x14ac:dyDescent="0.15">
       <c r="A187" s="24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE, B99:B109)</f>
         <v>body_sat_weight.167,body_sat_figure.167,body_sat_build.167,body_sat_breasts.167,body_sat_stomach.167,body_sat_waist.167,body_sat_thighs.167,body_sat_buttocks.167,body_sat_hips.167,body_sat_legs.167,body_sat_face.167</v>
@@ -9592,6 +9594,10 @@
       <c r="K207" s="1" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="208" spans="1:11" ht="16" x14ac:dyDescent="0.15">
+      <c r="A208" s="47"/>
+      <c r="C208" s="43"/>
     </row>
     <row r="209" spans="3:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C209" s="31"/>
